--- a/UIStudio/Debug_Simple_Date_Picker_with_error_in_excel/userNamesandDT.xlsx
+++ b/UIStudio/Debug_Simple_Date_Picker_with_error_in_excel/userNamesandDT.xlsx
@@ -512,7 +512,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
